--- a/Stocks/TATAMOTORS.xlsx
+++ b/Stocks/TATAMOTORS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>451.91666666666669</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>445.15522782282824</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>445.50045611497558</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>25.205564752647806</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.75</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>11.800000000000011</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>6.3559322033898247E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>450.12070470514897</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-0.93959025084433279</v>
       </c>
       <c r="Y67">
         <v>0.93282801261703374</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>448.6</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>445.45000000000005</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>444.05</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>442.65000000000003</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>385.85</v>
+      </c>
+      <c r="D83">
+        <v>387.4</v>
+      </c>
+      <c r="E83">
+        <v>378.3</v>
+      </c>
+      <c r="F83">
+        <v>380</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>381.90000000000003</v>
+      </c>
+      <c r="H83">
+        <v>381.38426241904438</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>388.54593853396369</v>
+      </c>
+      <c r="K83">
+        <v>379.43954694338811</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>38.774073447389789</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>9.0999999999999659</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.18681318681318626</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>389.43209879342783</v>
+      </c>
+      <c r="W83">
+        <v>407.29451703448188</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-17.862418241054058</v>
+      </c>
+      <c r="Y83">
+        <v>-16.713552652253334</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>379</v>
+      </c>
+      <c r="D84">
+        <v>382.35</v>
+      </c>
+      <c r="E84">
+        <v>374.45</v>
+      </c>
+      <c r="F84">
+        <v>375.55</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>377.45</v>
+      </c>
+      <c r="H84">
+        <v>379.41713120952215</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>387.16906330419397</v>
+      </c>
+      <c r="K84">
+        <v>378.33075873374628</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>32.402878349494799</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1.1000000000000227</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>7.9000000000000341</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.13924050632911619</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>387.2963912867466</v>
+      </c>
+      <c r="W84">
+        <v>404.94307132822399</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-17.646680041477396</v>
+      </c>
+      <c r="Y84">
+        <v>-16.900178130098148</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>380.85</v>
+      </c>
+      <c r="D85">
+        <v>382.75</v>
+      </c>
+      <c r="E85">
+        <v>377.45</v>
+      </c>
+      <c r="F85">
+        <v>379</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>379.73333333333335</v>
+      </c>
+      <c r="H85">
+        <v>379.57523227142775</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>386.18704923659533</v>
+      </c>
+      <c r="K85">
+        <v>378.13503457069157</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>41.688348796945583</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.29245283018868079</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>386.02002339647788</v>
+      </c>
+      <c r="W85">
+        <v>403.02136234094814</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-17.001338944470263</v>
+      </c>
+      <c r="Y85">
+        <v>-16.920410292972569</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>380.05</v>
+      </c>
+      <c r="D86">
+        <v>380.45</v>
+      </c>
+      <c r="E86">
+        <v>375.8</v>
+      </c>
+      <c r="F86">
+        <v>377</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>377.75</v>
+      </c>
+      <c r="H86">
+        <v>378.66261613571385</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>384.91214940624081</v>
+      </c>
+      <c r="K86">
+        <v>377.61613799942677</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>37.914362016490095</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.1999999999999886</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>4.6499999999999773</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.25806451612903109</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>384.63232748932745</v>
+      </c>
+      <c r="W86">
+        <v>401.09385401939642</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-16.461526530068966</v>
+      </c>
+      <c r="Y86">
+        <v>-16.828633540391849</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>379.35</v>
+      </c>
+      <c r="D87">
+        <v>392.85</v>
+      </c>
+      <c r="E87">
+        <v>378.65</v>
+      </c>
+      <c r="F87">
+        <v>391</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>387.5</v>
+      </c>
+      <c r="H87">
+        <v>383.08130806785692</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>386.676116204854</v>
+      </c>
+      <c r="K87">
+        <v>377.84588511066528</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>65.35641368724427</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>12.350000000000023</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>14.200000000000045</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.86971830985915377</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>385.61196941404631</v>
+      </c>
+      <c r="W87">
+        <v>400.34616112907077</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-14.734191715024451</v>
+      </c>
+      <c r="Y87">
+        <v>-16.409745175318371</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>393</v>
+      </c>
+      <c r="D88">
+        <v>396.05</v>
+      </c>
+      <c r="E88">
+        <v>380.5</v>
+      </c>
+      <c r="F88">
+        <v>384.2</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>386.91666666666669</v>
+      </c>
+      <c r="H88">
+        <v>384.9989873672618</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>388.7592014926642</v>
+      </c>
+      <c r="K88">
+        <v>378.43568841940635</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>51.528320264686613</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.6999999999999886</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>15.550000000000011</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.23794212218649427</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>385.39474335034686</v>
+      </c>
+      <c r="W88">
+        <v>399.15014919358401</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-13.755405843237156</v>
+      </c>
+      <c r="Y88">
+        <v>-15.878877308902128</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>385.7</v>
+      </c>
+      <c r="D89">
+        <v>389.5</v>
+      </c>
+      <c r="E89">
+        <v>383.4</v>
+      </c>
+      <c r="F89">
+        <v>389.1</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>387.33333333333331</v>
+      </c>
+      <c r="H89">
+        <v>386.16616035029756</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>388.92382338318328</v>
+      </c>
+      <c r="K89">
+        <v>379.5388687706494</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>59.287248375034309</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>5.7000000000000455</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>6.1000000000000227</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.93442622950820065</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>385.96478283490887</v>
+      </c>
+      <c r="W89">
+        <v>398.40569369776296</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-12.440910862854082</v>
+      </c>
+      <c r="Y89">
+        <v>-15.191284019692519</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>385</v>
+      </c>
+      <c r="D90">
+        <v>386.7</v>
+      </c>
+      <c r="E90">
+        <v>381.85</v>
+      </c>
+      <c r="F90">
+        <v>382.75</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>383.76666666666665</v>
+      </c>
+      <c r="H90">
+        <v>384.96641350848211</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>388.42964040914256</v>
+      </c>
+      <c r="K90">
+        <v>380.05245348828288</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>47.079553816513652</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.89999999999997726</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>4.8499999999999659</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.18556701030927497</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>385.4702008603075</v>
+      </c>
+      <c r="W90">
+        <v>397.24601268311386</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-11.775811822806361</v>
+      </c>
+      <c r="Y90">
+        <v>-14.508189580315287</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>383.7</v>
+      </c>
+      <c r="D91">
+        <v>384.4</v>
+      </c>
+      <c r="E91">
+        <v>376</v>
+      </c>
+      <c r="F91">
+        <v>378.25</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>379.55</v>
+      </c>
+      <c r="H91">
+        <v>382.25820675424109</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>387.53416476266642</v>
+      </c>
+      <c r="K91">
+        <v>379.15190826866444</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>39.816995288796676</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.25</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>8.3999999999999773</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.26785714285714357</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>384.3594007279525</v>
+      </c>
+      <c r="W91">
+        <v>395.83890063251283</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-11.479499904560328</v>
+      </c>
+      <c r="Y91">
+        <v>-13.902451645164295</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>381</v>
+      </c>
+      <c r="D92">
+        <v>381.8</v>
+      </c>
+      <c r="E92">
+        <v>374.05</v>
+      </c>
+      <c r="F92">
+        <v>375.1</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>376.98333333333335</v>
+      </c>
+      <c r="H92">
+        <v>379.62077004378722</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>386.25990592651834</v>
+      </c>
+      <c r="K92">
+        <v>378.0181508756279</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>35.081710336468952</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>7.75</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.13548387096774339</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>382.93487753903673</v>
+      </c>
+      <c r="W92">
+        <v>394.30268577084524</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-11.36780823180851</v>
+      </c>
+      <c r="Y92">
+        <v>-13.395522962493137</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>380</v>
+      </c>
+      <c r="D93">
+        <v>380</v>
+      </c>
+      <c r="E93">
+        <v>374.2</v>
+      </c>
+      <c r="F93">
+        <v>375</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>376.40000000000003</v>
+      </c>
+      <c r="H93">
+        <v>378.01038502189363</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>384.86881572062538</v>
+      </c>
+      <c r="K93">
+        <v>377.16967290326613</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>34.916927069195999</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>5.8000000000000114</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.13793103448276031</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V93">
+        <v>381.71412714841568</v>
+      </c>
+      <c r="W93">
+        <v>392.87285719522708</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-11.158730046811399</v>
+      </c>
+      <c r="Y93">
+        <v>-12.94816437935679</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>378.7</v>
+      </c>
+      <c r="D94">
+        <v>390</v>
+      </c>
+      <c r="E94">
+        <v>375.5</v>
+      </c>
+      <c r="F94">
+        <v>388.55</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>384.68333333333334</v>
+      </c>
+      <c r="H94">
+        <v>381.34685917761351</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>386.00907889381972</v>
+      </c>
+      <c r="K94">
+        <v>376.79863448031813</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>63.753651280374498</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>13.050000000000011</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>14.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.9000000000000008</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V94">
+        <v>382.76579989481326</v>
+      </c>
+      <c r="W94">
+        <v>392.55264555113621</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-9.7868456563229529</v>
+      </c>
+      <c r="Y94">
+        <v>-12.315900634750022</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>391</v>
+      </c>
+      <c r="D95">
+        <v>393.95</v>
+      </c>
+      <c r="E95">
+        <v>387.2</v>
+      </c>
+      <c r="F95">
+        <v>389.95</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>390.36666666666662</v>
+      </c>
+      <c r="H95">
+        <v>385.85676292214009</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J95">
+        <v>387.77372802852642</v>
+      </c>
+      <c r="K95">
+        <v>379.11004904024742</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N95">
+        <v>65.715538165196634</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.40740740740740738</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>383.87106144945739</v>
+      </c>
+      <c r="W95">
+        <v>392.35985699179281</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-8.4887955423354242</v>
+      </c>
+      <c r="Y95">
+        <v>-11.550479616267102</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>390.75</v>
+      </c>
+      <c r="D96">
+        <v>406.6</v>
+      </c>
+      <c r="E96">
+        <v>390.25</v>
+      </c>
+      <c r="F96">
+        <v>403.8</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>400.2166666666667</v>
+      </c>
+      <c r="H96">
+        <v>393.03671479440339</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>391.95734402218721</v>
+      </c>
+      <c r="K96">
+        <v>381.58559369797024</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N96">
+        <v>79.462164378306184</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>13.550000000000011</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>16.350000000000023</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.82874617737003009</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V96">
+        <v>386.93705199569473</v>
+      </c>
+      <c r="W96">
+        <v>393.20727499240076</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-6.2702229967060248</v>
+      </c>
+      <c r="Y96">
+        <v>-10.494428292354886</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD96">
+        <f t="shared" si="35"/>
+        <v>392.1</v>
+      </c>
+      <c r="AE96">
+        <f t="shared" si="36"/>
+        <v>396.5</v>
+      </c>
+      <c r="AF96">
+        <f t="shared" si="37"/>
+        <v>398.45000000000005</v>
+      </c>
+      <c r="AG96">
+        <f t="shared" si="38"/>
+        <v>400.35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>402.85</v>
+      </c>
+      <c r="D97">
+        <v>406.75</v>
+      </c>
+      <c r="E97">
+        <v>400</v>
+      </c>
+      <c r="F97">
+        <v>402</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>402.91666666666669</v>
+      </c>
+      <c r="H97">
+        <v>397.97669073053504</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>395.24460090614559</v>
+      </c>
+      <c r="K97">
+        <v>385.67768398731016</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>74.602724428987301</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>6.75</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.29629629629629628</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>389.25442861174167</v>
+      </c>
+      <c r="W97">
+        <v>393.85858795592662</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-4.60415934418495</v>
+      </c>
+      <c r="Y97">
+        <v>-9.3163745027208993</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>411.85</v>
+      </c>
+      <c r="D98">
+        <v>413</v>
+      </c>
+      <c r="E98">
+        <v>403.2</v>
+      </c>
+      <c r="F98">
+        <v>404.45</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>406.88333333333338</v>
+      </c>
+      <c r="H98">
+        <v>402.43001203193421</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>399.19024514922432</v>
+      </c>
+      <c r="K98">
+        <v>389.5715319901301</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>76.996200028470369</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.12755102040816313</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>391.59220882531986</v>
+      </c>
+      <c r="W98">
+        <v>394.64313699622835</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-3.0509281709084917</v>
+      </c>
+      <c r="Y98">
+        <v>-8.0632852363584178</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>415</v>
+      </c>
+      <c r="D99">
+        <v>427.7</v>
+      </c>
+      <c r="E99">
+        <v>414</v>
+      </c>
+      <c r="F99">
+        <v>424.25</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>421.98333333333335</v>
+      </c>
+      <c r="H99">
+        <v>412.20667268263378</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>405.52574622717447</v>
+      </c>
+      <c r="K99">
+        <v>395.00008043676786</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>88.215452262208728</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>10.25</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>13.699999999999989</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.74817518248175241</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>396.61648439065527</v>
+      </c>
+      <c r="W99">
+        <v>396.83623795947068</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-0.2197535688154062</v>
+      </c>
+      <c r="Y99">
+        <v>-6.4945789028498151</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>422.75</v>
+      </c>
+      <c r="D100">
+        <v>422.75</v>
+      </c>
+      <c r="E100">
+        <v>413</v>
+      </c>
+      <c r="F100">
+        <v>414.55</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>416.76666666666665</v>
+      </c>
+      <c r="H100">
+        <v>414.48666967465022</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>409.35335817669124</v>
+      </c>
+      <c r="K100">
+        <v>399.00006256193058</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>67.927920740239969</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.5500000000000114</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>9.75</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.15897435897436013</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>399.37548679209294</v>
+      </c>
+      <c r="W100">
+        <v>398.14836848099139</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>1.2271183111015489</v>
+      </c>
+      <c r="Y100">
+        <v>-4.9502394600595423</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>415.4</v>
+      </c>
+      <c r="D101">
+        <v>418.45</v>
+      </c>
+      <c r="E101">
+        <v>408.8</v>
+      </c>
+      <c r="F101">
+        <v>415.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>414.25</v>
+      </c>
+      <c r="H101">
+        <v>414.36833483732511</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>411.37483413742655</v>
+      </c>
+      <c r="K101">
+        <v>401.17782643705709</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N101">
+        <v>68.806164758799</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>6.6999999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>9.6499999999999773</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.69430051813471549</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>401.85618113177094</v>
+      </c>
+      <c r="W101">
+        <v>399.43367451943647</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>2.4225066123344732</v>
+      </c>
+      <c r="Y101">
+        <v>-3.475690245580739</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>414</v>
+      </c>
+      <c r="D102">
+        <v>422.15</v>
+      </c>
+      <c r="E102">
+        <v>408.85</v>
+      </c>
+      <c r="F102">
+        <v>415</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>415.33333333333331</v>
+      </c>
+      <c r="H102">
+        <v>414.85083408532921</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>413.76931544022062</v>
+      </c>
+      <c r="K102">
+        <v>402.88275389548886</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N102">
+        <v>67.588528732860226</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>6.1499999999999773</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>13.299999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.46240601503759388</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>403.87830711149849</v>
+      </c>
+      <c r="W102">
+        <v>400.58673566614488</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>3.2915714453536111</v>
+      </c>
+      <c r="Y102">
+        <v>-2.1222379073938686</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>413.65</v>
+      </c>
+      <c r="D103">
+        <v>415.3</v>
+      </c>
+      <c r="E103">
+        <v>404.6</v>
+      </c>
+      <c r="F103">
+        <v>407.95</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>409.28333333333336</v>
+      </c>
+      <c r="H103">
+        <v>412.06708370933131</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>414.10946756461607</v>
+      </c>
+      <c r="K103">
+        <v>403.26436414093581</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>51.519464017094641</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>3.3499999999999659</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>10.699999999999989</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.31308411214952986</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>404.50472140203721</v>
+      </c>
+      <c r="W103">
+        <v>401.13216265383784</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>3.3725587481993671</v>
+      </c>
+      <c r="Y103">
+        <v>-1.0232785762752215</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>409.4</v>
+      </c>
+      <c r="D104">
+        <v>413.9</v>
+      </c>
+      <c r="E104">
+        <v>403.3</v>
+      </c>
+      <c r="F104">
+        <v>410.65</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>409.2833333333333</v>
+      </c>
+      <c r="H104">
+        <v>410.67520852133231</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>414.0629192169236</v>
+      </c>
+      <c r="K104">
+        <v>403.27228322072784</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>56.473467811961001</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>7.3499999999999659</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>10.599999999999966</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.69339622641509335</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>405.45014887864687</v>
+      </c>
+      <c r="W104">
+        <v>401.83718764244242</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>3.6129612362044554</v>
+      </c>
+      <c r="Y104">
+        <v>-9.6030613779286011E-2</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>413.5</v>
+      </c>
+      <c r="D105">
+        <v>414.25</v>
+      </c>
+      <c r="E105">
+        <v>402</v>
+      </c>
+      <c r="F105">
+        <v>407</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>407.75</v>
+      </c>
+      <c r="H105">
+        <v>409.21260426066613</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>414.10449272427394</v>
+      </c>
+      <c r="K105">
+        <v>402.98955361612167</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N105">
+        <v>48.15784012982806</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>12.25</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.40816326530612246</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>405.68858751270119</v>
+      </c>
+      <c r="W105">
+        <v>402.21961818744666</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>3.4689693252545339</v>
+      </c>
+      <c r="Y105">
+        <v>0.61696937402747798</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>406.95</v>
+      </c>
+      <c r="D106">
+        <v>406.95</v>
+      </c>
+      <c r="E106">
+        <v>399</v>
+      </c>
+      <c r="F106">
+        <v>400.6</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>402.18333333333339</v>
+      </c>
+      <c r="H106">
+        <v>405.69796879699976</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>412.51460545221306</v>
+      </c>
+      <c r="K106">
+        <v>402.10298614587242</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>36.407742954886714</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000227</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>7.9499999999999886</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.20125786163522327</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>404.90572789536253</v>
+      </c>
+      <c r="W106">
+        <v>402.09964646985804</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>2.8060814255044875</v>
+      </c>
+      <c r="Y106">
+        <v>1.0547917843228798</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>401.4</v>
+      </c>
+      <c r="D107">
+        <v>405</v>
+      </c>
+      <c r="E107">
+        <v>397.4</v>
+      </c>
+      <c r="F107">
+        <v>403.85</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>402.08333333333331</v>
+      </c>
+      <c r="H107">
+        <v>403.89065106516654</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>410.84469312949903</v>
+      </c>
+      <c r="K107">
+        <v>401.0578781134563</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>44.935920636203583</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>6.4500000000000455</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>7.6000000000000227</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.84868421052631926</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>404.74330821915294</v>
+      </c>
+      <c r="W107">
+        <v>402.22930228690558</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>2.5140059322473576</v>
+      </c>
+      <c r="Y107">
+        <v>1.3466346139077754</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
